--- a/config/optimization_engine/config_optimization/AllFeatures.xlsx
+++ b/config/optimization_engine/config_optimization/AllFeatures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="6105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="7305" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -519,7 +519,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,51 +684,43 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>1000</v>
-      </c>
-      <c r="I7">
-        <v>100</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G8" s="4">
         <v>0</v>
@@ -742,24 +734,32 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1000</v>
+      </c>
+      <c r="I9">
+        <v>100</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -936,8 +936,11 @@
       <c r="H16">
         <v>20000</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -962,8 +965,11 @@
       <c r="H17">
         <v>20000</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -987,6 +993,9 @@
       </c>
       <c r="H18">
         <v>20000</v>
+      </c>
+      <c r="I18">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/config/optimization_engine/config_optimization/AllFeatures.xlsx
+++ b/config/optimization_engine/config_optimization/AllFeatures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="7305" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="7905" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="49">
   <si>
     <t>tag</t>
   </si>
@@ -138,9 +138,6 @@
   </si>
   <si>
     <t>Variable de entrada al proceso C. No es una variable de decisión del optimizador. Variable Observada</t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
   <si>
     <t>TL1</t>
@@ -516,468 +513,417 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="17.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="17.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>41</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
       <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="4">
+      <c r="F2" s="4">
         <v>0</v>
       </c>
+      <c r="G2">
+        <v>1000</v>
+      </c>
       <c r="H2">
-        <v>1000</v>
-      </c>
-      <c r="I2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="4">
+      <c r="F6" s="4">
         <v>0</v>
       </c>
+      <c r="G6">
+        <v>150</v>
+      </c>
       <c r="H6">
-        <v>150</v>
-      </c>
-      <c r="I6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>8</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="s">
         <v>25</v>
       </c>
-      <c r="G8" s="4">
+      <c r="F8" s="4">
         <v>0</v>
       </c>
+      <c r="G8">
+        <v>1000</v>
+      </c>
       <c r="H8">
-        <v>1000</v>
-      </c>
-      <c r="I8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>7</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="4">
+      <c r="F9" s="4">
         <v>0</v>
       </c>
+      <c r="G9">
+        <v>1000</v>
+      </c>
       <c r="H9">
-        <v>1000</v>
-      </c>
-      <c r="I9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
       <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="4">
+      <c r="F12" s="4">
         <v>0</v>
       </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
       <c r="H12">
         <v>100</v>
       </c>
-      <c r="I12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
       </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
       <c r="E13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="4">
+      <c r="F13" s="4">
         <v>0</v>
       </c>
+      <c r="G13">
+        <v>350</v>
+      </c>
       <c r="H13">
-        <v>350</v>
-      </c>
-      <c r="I13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="4">
+      <c r="F14" s="4">
         <v>0</v>
       </c>
+      <c r="G14">
+        <v>1000</v>
+      </c>
       <c r="H14">
-        <v>1000</v>
-      </c>
-      <c r="I14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
       </c>
       <c r="B15" t="s">
         <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="4">
-        <v>100</v>
+      <c r="F16" s="4">
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <v>20000</v>
       </c>
       <c r="H16">
-        <v>20000</v>
-      </c>
-      <c r="I16">
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="4">
-        <v>100</v>
+      <c r="F17" s="4">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>20000</v>
       </c>
       <c r="H17">
-        <v>20000</v>
-      </c>
-      <c r="I17">
         <v>300</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>47</v>
@@ -985,16 +931,13 @@
       <c r="E18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="G18" s="4">
-        <v>100</v>
+      <c r="F18" s="4">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>20000</v>
       </c>
       <c r="H18">
-        <v>20000</v>
-      </c>
-      <c r="I18">
         <v>300</v>
       </c>
     </row>

--- a/config/optimization_engine/config_optimization/AllFeatures.xlsx
+++ b/config/optimization_engine/config_optimization/AllFeatures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="7905" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="9105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -516,7 +516,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="H6">
         <v>100</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="H12">
         <v>100</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="H13">
         <v>100</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="H14">
         <v>100</v>

--- a/config/optimization_engine/config_optimization/AllFeatures.xlsx
+++ b/config/optimization_engine/config_optimization/AllFeatures.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="9105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="9705" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -516,7 +516,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,7 +938,7 @@
         <v>20000</v>
       </c>
       <c r="H18">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
